--- a/medicine/Psychotrope/La_Maison_du_whisky/La_Maison_du_whisky.xlsx
+++ b/medicine/Psychotrope/La_Maison_du_whisky/La_Maison_du_whisky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Maison du Whisky (LMDW), créée en 1956 sous le nom de SNPA (Société Nouvelle de Produits alimentaires), est une entreprise française de distribution de spiritueux, spécialisée dans le whisky, le rhum et les alcools premium. Acteur indépendant au cœur de l’industrie des spiritueux, La Maison du Whisky agit en tant que détaillant, importateur, distributeur, exportateur, embouteilleur et producteur de spiritueux, en France et à l’international. La Maison du Whisky dispense également des formations et des masterclass à destination des professionnels et des particuliers. À travers sa filiale Figures de Still, la société organise le Whisky Live Paris et publie la revue spécialisée Whisky Magazine &amp; Fine Spirits. La Maison du Whisky est présente à l’international avec sa filiale La Maison du Whisky Singapour.
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1956 par les trois frères Simon, Félix et Georges Bénitah, La Maison du Whisky[1] importe, dans les années 1960, les premiers single malts en France. Distributeur auprès des cavistes, bars, hôtels et restaurants, elle ouvre à partir de 1961[2], son premier point de vente à destination des particuliers Rue Saint-Didier dans le XVIe arrondissement de Paris.  En 1968, la boutique est transférée dans le quartier de la Madeleine, au 20 rue d’Anjou et devient la boutique historique de la marque. D’autres boutiques seront créées par la suite à Paris : l’une est située carrefour de l’Odéon en 2010, l’autre rue Tiquetonne en 2017. 
-Dans les années 1970, La Maison du Whisky devient le premier distributeur en France de nombreuses marques de whisky, dont Lagavulin et Springbank. Dans les années 1990, sous l’impulsion de Thierry Bénitah, fils du fondateur Georges Bénitah et Président Directeur Général de la société à partir de 1995, La Maison du Whisky étend son domaine d’expertise aux bourbons et aux irish whiskeys. La société innove en important et en distribuant les premiers  whiskies japonais en Europe en 1993 : les whiskies Suntory avec, en premier lieu, le blend Hibiki, puis les whiskies du groupe Nikka à partir de 2001[3]. En 1997, elle lance whisky.fr, le premier site internet français de vente en ligne de whisky.
-Dans les années 2000, La Maison du Whisky se tourne vers d’autres régions et pays producteurs de whisky comme le Pays de Galles, la Suède, l’Italie, l’Inde, la Nouvelle Zélande, l’Australie et Taïwan. Elle s’intéresse à la production française en accompagnant les pionniers de la catégorie[4], à commencer par la distillerie Warenghem et la distillerie des Menhirs. La Maison du Whisky devient également le distributeur exclusif européen du groupe Nikka Whisky à partir de 2007. En parallèle, la société élargit son portefeuille à toutes les catégories de spiritueux : rhum, gin, tequila, vodka, cognac, armagnac[5]… Pour accompagner sa croissance à l’international, La Maison du Whisky fonde en 2006 la filiale La Maison du Whisky Singapour : un bar et une boutique, mais aussi une plateforme de distribution dédiée à toute l’Asie du Sud-Est.
-Les années 2000 sont aussi un tournant majeur pour La Maison du Whisky qui organise en 2004 le premier Whisky Live Paris[6], devenu l’un des plus grands salons de dégustation au monde, et lance la licence française de la revue Whisky magazine. Incontournable pour les professionnels du secteur et les amateurs de spiritueux, le Whisky Live Paris attire chaque année des milliers de visiteurs français et internationaux et offre une occasion unique de déguster toutes les catégories de spiritueux et d’alcools fins : whiskies, rhums, gins, sakés, etc. La filiale singapourienne de La Maison du Whisky organise le Whisky Live Singapour[7] depuis 2010.
-En 2017, La Maison du Whisky créé avec la société italienne Velier, spécialiste du rhum, la joint-venture La Maison &amp; Velier[8] (LM&amp;V), pour embouteiller et distribuer des rhums et développer des gammes de spiritueux d’exception. Les deux partenaires fondent également en 2019 la distillerie de Port-au-Prince, en Haïti, productrice des rhums Providence. En 2020, La Maison du Whisky lance Fine Spirits Auction (FSA) en collaboration avec le leader européen des ventes aux enchères de vins, iDealwine[9]. Enfin, avec le lancement en 2022 de la plateforme digitale The Avant Gardists (TAG), La Maison du Whisky offre une vitrine aux jeunes marques et aux distilleries innovantes. La Maison du Whisky est aujourd’hui présente dans une soixantaine de pays sur les cinq continents, distribuant un portefeuille de 250 marques et d’environ 4 000 références exclusives[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1956 par les trois frères Simon, Félix et Georges Bénitah, La Maison du Whisky importe, dans les années 1960, les premiers single malts en France. Distributeur auprès des cavistes, bars, hôtels et restaurants, elle ouvre à partir de 1961, son premier point de vente à destination des particuliers Rue Saint-Didier dans le XVIe arrondissement de Paris.  En 1968, la boutique est transférée dans le quartier de la Madeleine, au 20 rue d’Anjou et devient la boutique historique de la marque. D’autres boutiques seront créées par la suite à Paris : l’une est située carrefour de l’Odéon en 2010, l’autre rue Tiquetonne en 2017. 
+Dans les années 1970, La Maison du Whisky devient le premier distributeur en France de nombreuses marques de whisky, dont Lagavulin et Springbank. Dans les années 1990, sous l’impulsion de Thierry Bénitah, fils du fondateur Georges Bénitah et Président Directeur Général de la société à partir de 1995, La Maison du Whisky étend son domaine d’expertise aux bourbons et aux irish whiskeys. La société innove en important et en distribuant les premiers  whiskies japonais en Europe en 1993 : les whiskies Suntory avec, en premier lieu, le blend Hibiki, puis les whiskies du groupe Nikka à partir de 2001. En 1997, elle lance whisky.fr, le premier site internet français de vente en ligne de whisky.
+Dans les années 2000, La Maison du Whisky se tourne vers d’autres régions et pays producteurs de whisky comme le Pays de Galles, la Suède, l’Italie, l’Inde, la Nouvelle Zélande, l’Australie et Taïwan. Elle s’intéresse à la production française en accompagnant les pionniers de la catégorie, à commencer par la distillerie Warenghem et la distillerie des Menhirs. La Maison du Whisky devient également le distributeur exclusif européen du groupe Nikka Whisky à partir de 2007. En parallèle, la société élargit son portefeuille à toutes les catégories de spiritueux : rhum, gin, tequila, vodka, cognac, armagnac… Pour accompagner sa croissance à l’international, La Maison du Whisky fonde en 2006 la filiale La Maison du Whisky Singapour : un bar et une boutique, mais aussi une plateforme de distribution dédiée à toute l’Asie du Sud-Est.
+Les années 2000 sont aussi un tournant majeur pour La Maison du Whisky qui organise en 2004 le premier Whisky Live Paris, devenu l’un des plus grands salons de dégustation au monde, et lance la licence française de la revue Whisky magazine. Incontournable pour les professionnels du secteur et les amateurs de spiritueux, le Whisky Live Paris attire chaque année des milliers de visiteurs français et internationaux et offre une occasion unique de déguster toutes les catégories de spiritueux et d’alcools fins : whiskies, rhums, gins, sakés, etc. La filiale singapourienne de La Maison du Whisky organise le Whisky Live Singapour depuis 2010.
+En 2017, La Maison du Whisky créé avec la société italienne Velier, spécialiste du rhum, la joint-venture La Maison &amp; Velier (LM&amp;V), pour embouteiller et distribuer des rhums et développer des gammes de spiritueux d’exception. Les deux partenaires fondent également en 2019 la distillerie de Port-au-Prince, en Haïti, productrice des rhums Providence. En 2020, La Maison du Whisky lance Fine Spirits Auction (FSA) en collaboration avec le leader européen des ventes aux enchères de vins, iDealwine. Enfin, avec le lancement en 2022 de la plateforme digitale The Avant Gardists (TAG), La Maison du Whisky offre une vitrine aux jeunes marques et aux distilleries innovantes. La Maison du Whisky est aujourd’hui présente dans une soixantaine de pays sur les cinq continents, distribuant un portefeuille de 250 marques et d’environ 4 000 références exclusives.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Organisation et structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maison du Whisky est dirigée par Thierry Bénitah, PDG depuis 1995. Près de 250 personnes travaillent pour La Maison du Whisky, dont une vingtaine de collaborateurs employés par la filiale de Singapour. Le siège de La Maison du Whisky est implanté à Clichy-la-Garenne dans les Hauts-de-Seine. 
 La Maison du Whisky possède trois boutiques, un bar, Le Golden Promise, et un restaurant à Paris, ainsi qu’un bar et une boutique à Singapour.
-Fondée en 1968 dans le quartier de Madeleine, la boutique historique de La Maison du Whisky propose en majorité des whiskies d’Écosse et du monde (environ 1 500 références). Elle abrite une collection de whiskys rares et anciens, mais aussi une salle dédiée au whisky d’Islay et un espace de formation, le Lab[11]. 
+Fondée en 1968 dans le quartier de Madeleine, la boutique historique de La Maison du Whisky propose en majorité des whiskies d’Écosse et du monde (environ 1 500 références). Elle abrite une collection de whiskys rares et anciens, mais aussi une salle dédiée au whisky d’Islay et un espace de formation, le Lab. 
 </t>
         </is>
       </c>
@@ -580,11 +596,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette section rassemble les publications du personnel ou des anciens salariés de La Maison du Whisky.
-En tant qu’auteur
-L’Abécédaire du Whisky, Thierry Bénitah et Jean-Marc Bellier, 1996, Flammarion
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette section rassemble les publications du personnel ou des anciens salariés de La Maison du Whisky.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En tant qu’auteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L’Abécédaire du Whisky, Thierry Bénitah et Jean-Marc Bellier, 1996, Flammarion
 Le Whisky, Thierry Bénitah et Jean-Marc Bellier, 1998, Flammarion
 Whisky, histoire et dégustation, Thierry Bénitah, Jean-Marc Bellier et Emmanuel Dron, 2003, Flammarion
 Le petit guide de l’amateur de whisky, La Maison du Whisky, 2009, Flammarion
@@ -594,44 +647,114 @@
 Whisky cellar book, La Maison du Whisky, 2017, Flammarion
 Guide de l’expert Rhum, La Maison du Whisky, 2018, Flammarion
 Le nuancier des alcools, Didier Ghorbanzadeh, La Maison du Whisky, 2019, Flammarion
-Une brève mais intense histoire du whisky français, Matthieu Acar, La Maison du Whisky, 2023, Flammarion[12]
-En tant que directeur de collection et préfacier
-Les 1001 Whiskies qu’il faut avoir goûtés dans sa vie, ouvrage collectif, 2013, Flammarion
+Une brève mais intense histoire du whisky français, Matthieu Acar, La Maison du Whisky, 2023, Flammarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En tant que directeur de collection et préfacier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les 1001 Whiskies qu’il faut avoir goûtés dans sa vie, ouvrage collectif, 2013, Flammarion
 Atlas mondial du whisky, Dave Broom, 2011 (NE 2015), Flammarion
 Atlas du rhum, Luca Gargano, 2014, Flammarion
 Manuel du whisky, Dave Broom, 2014, Flammarion
 Manuel du gin, Dave Broom 2016, Flammarion
-Guide ultime des cocktails, Whisky Magazine, 2016, Flammarion
-En tant qu'éditeur
-Whisky Magazine &amp; Fine Spirits. Édité par une société filiale de l’entreprise, Figures de Still. Ce magazine est la version francophone de la revue britannique Whisky Magazine.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+Guide ultime des cocktails, Whisky Magazine, 2016, Flammarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>La_Maison_du_whisky</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_Maison_du_whisky</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En tant qu'éditeur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Whisky Magazine &amp; Fine Spirits. Édité par une société filiale de l’entreprise, Figures de Still. Ce magazine est la version francophone de la revue britannique Whisky Magazine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_du_whisky</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
